--- a/ig/ch-lab-report/ValueSet-observation-code-mdrd-male-female.xlsx
+++ b/ig/ch-lab-report/ValueSet-observation-code-mdrd-male-female.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -117,13 +117,13 @@
     <t>70969-1</t>
   </si>
   <si>
-    <t>Glomerular filtration rate/1.73 sq M.predicted among males [Volume Rate/Area] in Serum, Plasma or Blood by Creatinine-based formula (MDRD)</t>
+    <t>Glomerular filtration rate [Volume Rate/Area] in Serum, Plasma or Blood by Creatinine-based formula (MDRD)/1.73 sq M among male population</t>
   </si>
   <si>
     <t>50044-7</t>
   </si>
   <si>
-    <t>Glomerular filtration rate/1.73 sq M.predicted among females [Volume Rate/Area] in Serum, Plasma or Blood by Creatinine-based formula (MDRD)</t>
+    <t>Glomerular filtration rate [Volume Rate/Area] in Serum, Plasma or Blood by Creatinine-based formula (MDRD)/1.73 sq M among female population</t>
   </si>
   <si>
     <t/>

--- a/ig/ch-lab-report/ValueSet-observation-code-mdrd-male-female.xlsx
+++ b/ig/ch-lab-report/ValueSet-observation-code-mdrd-male-female.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>77147-7</t>
   </si>
   <si>
-    <t>Glomerular filtration rate/1.73 sq M.predicted [Volume Rate/Area] in Serum, Plasma or Blood by Creatinine-based formula (MDRD)</t>
+    <t>Glomerular filtration rate [Volume Rate/Area] in Serum, Plasma or Blood by Creatinine-based formula (MDRD)/1.73 sq M</t>
   </si>
   <si>
     <t>70969-1</t>
